--- a/Opdracht5/blokjes.xlsx
+++ b/Opdracht5/blokjes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Delphi\Opdracht5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isomorphism\Documents\Repos\delphi\Opdracht5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B32607D-A3F7-44D3-BBF1-E9A9F6E1E9F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567586C0-D8ED-4F2A-861C-C38DBA0DEB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4178" windowWidth="21600" windowHeight="11422" xr2:uid="{0EB45573-4FE8-421B-BFBA-A02B72BE10FC}"/>
+    <workbookView xWindow="3760" yWindow="3120" windowWidth="28800" windowHeight="15460" xr2:uid="{0EB45573-4FE8-421B-BFBA-A02B72BE10FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Z</t>
   </si>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,7 +78,19 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Cascadia Code"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -285,55 +297,160 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,7 +475,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -656,264 +773,461 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6E4050-87D6-4100-B129-3530FB5F9BFC}">
   <dimension ref="B1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="35.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.81640625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="6.86328125" style="1"/>
+    <col min="1" max="16384" width="6.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="35.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:24" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="2:24" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="14"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="14"/>
+    <row r="2" spans="2:24" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="48">
+        <v>0</v>
+      </c>
+      <c r="I2" s="49">
+        <v>1</v>
+      </c>
+      <c r="J2" s="49">
+        <v>2</v>
+      </c>
+      <c r="K2" s="49">
+        <v>3</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>3</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="10">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="11">
+        <v>3</v>
+      </c>
+      <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="2:24" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="16"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="16"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="16"/>
+    <row r="3" spans="2:24" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="50">
+        <v>5</v>
+      </c>
+      <c r="I3" s="51">
+        <v>6</v>
+      </c>
+      <c r="J3" s="51">
+        <v>7</v>
+      </c>
+      <c r="K3" s="51">
+        <v>8</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>8</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="18">
+        <v>5</v>
+      </c>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="19">
+        <v>8</v>
+      </c>
+      <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="2:24" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="16"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="16"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="16"/>
+    <row r="4" spans="2:24" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="20">
+        <v>10</v>
+      </c>
+      <c r="O4" s="17">
+        <v>11</v>
+      </c>
+      <c r="P4" s="17">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>13</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="18">
+        <v>10</v>
+      </c>
+      <c r="U4" s="19">
+        <v>11</v>
+      </c>
+      <c r="V4" s="19">
+        <v>12</v>
+      </c>
+      <c r="W4" s="19">
+        <v>13</v>
+      </c>
+      <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="2:24" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="16"/>
+    <row r="5" spans="2:24" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="13">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="2:24" ht="35.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="20"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
+    <row r="6" spans="2:24" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
     </row>
-    <row r="7" spans="2:24" ht="35.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="2:24" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="2:24" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="14"/>
+    <row r="8" spans="2:24" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="44">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>1</v>
+      </c>
+      <c r="J8" s="45">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="26">
+        <v>1</v>
+      </c>
+      <c r="P8" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="32">
+        <v>1</v>
+      </c>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="34"/>
     </row>
-    <row r="9" spans="2:24" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="16"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="16"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="16"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="16"/>
+    <row r="9" spans="2:24" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27">
+        <v>5</v>
+      </c>
+      <c r="C9" s="28">
+        <v>6</v>
+      </c>
+      <c r="D9" s="28">
+        <v>7</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="46">
+        <v>5</v>
+      </c>
+      <c r="I9" s="47">
+        <v>6</v>
+      </c>
+      <c r="J9" s="47">
+        <v>7</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="29">
+        <v>6</v>
+      </c>
+      <c r="P9" s="29">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36">
+        <v>6</v>
+      </c>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="38"/>
     </row>
-    <row r="10" spans="2:24" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="16"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="16"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="16"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
+    <row r="10" spans="2:24" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="28">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="46">
+        <v>10</v>
+      </c>
+      <c r="I10" s="47">
+        <v>11</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="30">
+        <v>10</v>
+      </c>
+      <c r="O10" s="29">
+        <v>11</v>
+      </c>
+      <c r="P10" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>13</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="39">
+        <v>10</v>
+      </c>
+      <c r="U10" s="36">
+        <v>11</v>
+      </c>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="38"/>
     </row>
-    <row r="11" spans="2:24" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="16"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="16"/>
+    <row r="11" spans="2:24" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="28">
+        <v>16</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="39">
+        <v>15</v>
+      </c>
+      <c r="U11" s="36">
+        <v>16</v>
+      </c>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="38"/>
     </row>
-    <row r="12" spans="2:24" ht="35.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
+    <row r="12" spans="2:24" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="40">
+        <v>20</v>
+      </c>
+      <c r="U12" s="41">
+        <v>21</v>
+      </c>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>